--- a/tests/test_grid_3.xlsx
+++ b/tests/test_grid_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65A8C1B2-A00A-4BEA-A1D6-5A27B1952091}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577A9D09-DCD2-4C56-8264-457D4DDBDEED}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>tap_max</t>
+  </si>
+  <si>
+    <t>s_base_mva</t>
+  </si>
+  <si>
+    <t>g_shunt_pu</t>
+  </si>
+  <si>
+    <t>b_shunt_pu</t>
   </si>
 </sst>
 </file>
@@ -229,10 +238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -756,10 +761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF97191-B8C8-4B12-8921-F601069D1D4E}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,72 +772,120 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -939,7 +992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C15A9-E0D3-48E6-90F6-6A9120B37C7B}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
